--- a/advJava/advancedMathNumbers.xlsx
+++ b/advJava/advancedMathNumbers.xlsx
@@ -224,6 +224,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -529,11 +530,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="236070560"/>
-        <c:axId val="236071120"/>
+        <c:axId val="239862432"/>
+        <c:axId val="239862992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236070560"/>
+        <c:axId val="239862432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +577,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236071120"/>
+        <c:crossAx val="239862992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -584,7 +585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236071120"/>
+        <c:axId val="239862992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +636,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236070560"/>
+        <c:crossAx val="239862432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,6 +650,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -755,6 +757,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1033,11 +1036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="236075040"/>
-        <c:axId val="236075600"/>
+        <c:axId val="239866912"/>
+        <c:axId val="239867472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236075040"/>
+        <c:axId val="239866912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1083,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236075600"/>
+        <c:crossAx val="239867472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1088,7 +1091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236075600"/>
+        <c:axId val="239867472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1142,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236075040"/>
+        <c:crossAx val="239866912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1153,6 +1156,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2300,11 +2304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="237490960"/>
-        <c:axId val="237491520"/>
+        <c:axId val="237646816"/>
+        <c:axId val="237647376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237490960"/>
+        <c:axId val="237646816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2351,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237491520"/>
+        <c:crossAx val="237647376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2355,7 +2359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237491520"/>
+        <c:axId val="237647376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2410,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237490960"/>
+        <c:crossAx val="237646816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2457,6 +2461,1400 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Value per m2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Family Home</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$13:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1979.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1497.704081632653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1180.078125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958.7962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>677.16942148760336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>583.85416666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510.13313609467457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450.76530612244898</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>402.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>361.81640625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>327.89792387543253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299.07407407407408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>274.34210526315792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>234.26870748299319</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>217.87190082644628</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.37901701323253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.49479166666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bungalow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$13:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="1">
+                  <c:v>1847.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1487.3118279569892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1231.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1041.6783216783217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>896.97674418604652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>783.63338788870703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>692.94117647058829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>619.0545454545454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>557.92372881355936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>506.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>463.18407960199005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>425.91549295774649</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>393.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365.56962025316454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>340.87623220153341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>319.04047976011992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>299.61538461538464</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>282.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mansion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$13:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="4">
+                  <c:v>1178.7439613526569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1055.6734693877552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>954.85674353598881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>870.90139140955841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>739.39393939393938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>687.03933747412009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>641.39207700851534</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>601.26540126540124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>565.73321288768443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>534.06292749658007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>505.66791510611733</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480.07320979180963</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>456.89038501998738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>435.79887400504754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="244298640"/>
+        <c:axId val="244289120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="244298640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Clearance in m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244289120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244289120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value per m2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244298640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Value per m2 between water</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Family Home</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$13:$X$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2968.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2620.9821428571427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2360.15625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2157.2916666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1862.215909090909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1751.5625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1657.9326923076924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1577.6785714285713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1508.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1447.265625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1393.5661764705883</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1345.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1303.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1264.6875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1229.9107142857142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1198.2954545454545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1169.429347826087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1142.96875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bungalow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$13:$Y$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="1">
+                  <c:v>3325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3073.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2872.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2708.3636363636365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2571.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2455.3846153846152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2269.8666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2194.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2068.8888888888887</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1968.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1925.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1886.1818181818182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1850.4347826086957</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1817.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1787.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mansion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$13:$Z$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="4">
+                  <c:v>2525.8799171842652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2463.2380952380954</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2409.8765432098767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2363.8752052545155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2323.8095238095239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2288.6002886002884</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2257.4149659863947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2229.6010296010295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2204.6398046398044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2182.1138211382113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2161.6832779623478</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2143.068783068783</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2126.0385005065855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2110.3984450923226</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2095.9850606909431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="274465600"/>
+        <c:axId val="274469520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="274465600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Clearance in m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274469520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="274469520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value per m2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274465600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2607,6 +4005,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4138,6 +5616,1048 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4206,16 +6726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>521072</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>375396</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>252131</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4229,6 +6749,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368776</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>98816</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>11103</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>438048</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>169107</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>132330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4502,8 +7082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
